--- a/history/34_45/data_ticker_1603.xlsx
+++ b/history/34_45/data_ticker_1603.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\34_45\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB79E305-905D-41D1-B302-5ACC050186D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0F9B77-C2B8-4F71-BFC4-854E4A972B74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1778,7 +1778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1786,7 +1786,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1808,20 +1807,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCD5B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -2162,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CR252"/>
+  <dimension ref="A1:EG252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CV18" sqref="CV18"/>
+      <selection activeCell="CX7" sqref="CX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -2196,106 +2189,108 @@
     <col min="86" max="86" width="9.140625" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="87" max="89" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="90" max="90" width="9.140625" collapsed="1"/>
-    <col min="96" max="96" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="9.140625" style="20"/>
+    <col min="96" max="96" width="12.28515625" style="20" hidden="1" customWidth="1"/>
+    <col min="97" max="137" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>14</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="6">
         <f>H1/$E$2</f>
         <v>0.12844036697247707</v>
       </c>
     </row>
     <row r="2" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>44271</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="19"/>
       <c r="E2">
         <f>SUBTOTAL(  2,A:A)</f>
         <v>109</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>4</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f t="shared" ref="I2:I6" si="0">H2/$E$2</f>
         <v>3.669724770642202E-2</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f>SUBTOTAL( 9,CL:CL)</f>
         <v>4551.3200000000006</v>
       </c>
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>18</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f t="shared" si="0"/>
         <v>0.16513761467889909</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <f>SUBTOTAL( 9,CR:CR)</f>
         <v>4599.5851010114839</v>
       </c>
     </row>
     <row r="4" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>31</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f t="shared" si="0"/>
         <v>0.28440366972477066</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <f>100%-(L2/L3)</f>
         <v>1.0493359716481687E-2</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>23</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>0.21100917431192662</v>
       </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
         <v>19</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>0.1743119266055046</v>
       </c>
@@ -2861,15 +2856,15 @@
       <c r="CN9" t="s">
         <v>97</v>
       </c>
-      <c r="CO9" s="4">
+      <c r="CO9" s="3">
         <f>100%-(M9/CL9)</f>
         <v>-8.0106809078770436E-3</v>
       </c>
-      <c r="CP9" s="4">
+      <c r="CP9" s="3">
         <f>100%-(CL9/CM9)</f>
         <v>7.1580063626721646E-3</v>
       </c>
-      <c r="CR9" s="3">
+      <c r="CR9" s="21">
         <f>CL9*CP9+CL9</f>
         <v>37.718067338282076</v>
       </c>
@@ -3151,15 +3146,15 @@
       <c r="CN10" t="s">
         <v>103</v>
       </c>
-      <c r="CO10" s="4">
+      <c r="CO10" s="3">
         <f t="shared" ref="CO10:CO73" si="1">100%-(M10/CL10)</f>
         <v>7.7800829875518396E-4</v>
       </c>
-      <c r="CP10" s="4">
+      <c r="CP10" s="3">
         <f t="shared" ref="CP10:CP73" si="2">100%-(CL10/CM10)</f>
         <v>9.7586029789418216E-3</v>
       </c>
-      <c r="CR10" s="3">
+      <c r="CR10" s="21">
         <f t="shared" ref="CR10:CR73" si="3">CL10*CP10+CL10</f>
         <v>38.936291730868</v>
       </c>
@@ -3441,15 +3436,15 @@
       <c r="CN11" t="s">
         <v>103</v>
       </c>
-      <c r="CO11" s="4">
+      <c r="CO11" s="3">
         <f t="shared" si="1"/>
         <v>-8.1343479401732033E-3</v>
       </c>
-      <c r="CP11" s="4">
+      <c r="CP11" s="3">
         <f t="shared" si="2"/>
         <v>2.3560209424084988E-3</v>
       </c>
-      <c r="CR11" s="3">
+      <c r="CR11" s="21">
         <f t="shared" si="3"/>
         <v>38.199787958115188</v>
       </c>
@@ -3731,15 +3726,15 @@
       <c r="CN12" t="s">
         <v>103</v>
       </c>
-      <c r="CO12" s="4">
+      <c r="CO12" s="3">
         <f t="shared" si="1"/>
         <v>-6.9670227589408995E-3</v>
       </c>
-      <c r="CP12" s="4">
+      <c r="CP12" s="3">
         <f t="shared" si="2"/>
         <v>1.0342450011491477E-2</v>
       </c>
-      <c r="CR12" s="3">
+      <c r="CR12" s="21">
         <f t="shared" si="3"/>
         <v>43.505345897494827</v>
       </c>
@@ -4021,15 +4016,15 @@
       <c r="CN13" t="s">
         <v>97</v>
       </c>
-      <c r="CO13" s="4">
+      <c r="CO13" s="3">
         <f t="shared" si="1"/>
         <v>-8.3820167640336063E-3</v>
       </c>
-      <c r="CP13" s="4">
+      <c r="CP13" s="3">
         <f t="shared" si="2"/>
         <v>3.03874398581927E-3</v>
       </c>
-      <c r="CR13" s="3">
+      <c r="CR13" s="21">
         <f t="shared" si="3"/>
         <v>39.489635350721699</v>
       </c>
@@ -4038,7 +4033,7 @@
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>119</v>
       </c>
       <c r="C14">
@@ -4311,15 +4306,15 @@
       <c r="CN14" t="s">
         <v>97</v>
       </c>
-      <c r="CO14" s="4">
+      <c r="CO14" s="3">
         <f t="shared" si="1"/>
         <v>5.3993250843644702E-3</v>
       </c>
-      <c r="CP14" s="4">
+      <c r="CP14" s="3">
         <f t="shared" si="2"/>
         <v>1.6157591854802922E-2</v>
       </c>
-      <c r="CR14" s="3">
+      <c r="CR14" s="21">
         <f t="shared" si="3"/>
         <v>45.168204957945996</v>
       </c>
@@ -4601,15 +4596,15 @@
       <c r="CN15" t="s">
         <v>97</v>
       </c>
-      <c r="CO15" s="4">
+      <c r="CO15" s="3">
         <f t="shared" si="1"/>
         <v>-2.1192052980132381E-3</v>
       </c>
-      <c r="CP15" s="4">
+      <c r="CP15" s="3">
         <f t="shared" si="2"/>
         <v>8.6659663865545911E-3</v>
       </c>
-      <c r="CR15" s="3">
+      <c r="CR15" s="21">
         <f t="shared" si="3"/>
         <v>38.077140231092436</v>
       </c>
@@ -4891,20 +4886,20 @@
       <c r="CN16" t="s">
         <v>97</v>
       </c>
-      <c r="CO16" s="4">
+      <c r="CO16" s="3">
         <f t="shared" si="1"/>
         <v>1.831501831501825E-3</v>
       </c>
-      <c r="CP16" s="4">
+      <c r="CP16" s="3">
         <f t="shared" si="2"/>
         <v>1.2147841819591609E-2</v>
       </c>
-      <c r="CR16" s="3">
+      <c r="CR16" s="21">
         <f t="shared" si="3"/>
         <v>38.684290514344788</v>
       </c>
     </row>
-    <row r="17" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -5181,24 +5176,24 @@
       <c r="CN17" t="s">
         <v>97</v>
       </c>
-      <c r="CO17" s="4">
+      <c r="CO17" s="3">
         <f t="shared" si="1"/>
         <v>-7.5528700906342117E-3</v>
       </c>
-      <c r="CP17" s="4">
+      <c r="CP17" s="3">
         <f t="shared" si="2"/>
         <v>6.2191722067338473E-3</v>
       </c>
-      <c r="CR17" s="3">
+      <c r="CR17" s="21">
         <f t="shared" si="3"/>
         <v>46.628196440060051</v>
       </c>
     </row>
-    <row r="18" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>139</v>
       </c>
       <c r="C18">
@@ -5471,20 +5466,20 @@
       <c r="CN18" t="s">
         <v>103</v>
       </c>
-      <c r="CO18" s="4">
+      <c r="CO18" s="3">
         <f t="shared" si="1"/>
         <v>-3.9712087366592375E-3</v>
       </c>
-      <c r="CP18" s="4">
+      <c r="CP18" s="3">
         <f t="shared" si="2"/>
         <v>1.3467189030362481E-2</v>
       </c>
-      <c r="CR18" s="3">
+      <c r="CR18" s="21">
         <f t="shared" si="3"/>
         <v>40.832593046033303</v>
       </c>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -5761,20 +5756,20 @@
       <c r="CN19" t="s">
         <v>97</v>
       </c>
-      <c r="CO19" s="4">
+      <c r="CO19" s="3">
         <f t="shared" si="1"/>
         <v>-7.0766227428016304E-3</v>
       </c>
-      <c r="CP19" s="4">
+      <c r="CP19" s="3">
         <f t="shared" si="2"/>
         <v>1.1815770436460094E-2</v>
       </c>
-      <c r="CR19" s="3">
+      <c r="CR19" s="21">
         <f t="shared" si="3"/>
         <v>41.464210272486135</v>
       </c>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -6051,20 +6046,20 @@
       <c r="CN20" t="s">
         <v>97</v>
       </c>
-      <c r="CO20" s="4">
+      <c r="CO20" s="3">
         <f t="shared" si="1"/>
         <v>-4.8032936870996412E-3</v>
       </c>
-      <c r="CP20" s="4">
+      <c r="CP20" s="3">
         <f t="shared" si="2"/>
         <v>2.9646522234891837E-3</v>
       </c>
-      <c r="CR20" s="3">
+      <c r="CR20" s="21">
         <f t="shared" si="3"/>
         <v>43.849614595210944</v>
       </c>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -6341,20 +6336,20 @@
       <c r="CN21" t="s">
         <v>97</v>
       </c>
-      <c r="CO21" s="4">
+      <c r="CO21" s="3">
         <f t="shared" si="1"/>
         <v>3.811659192825112E-3</v>
       </c>
-      <c r="CP21" s="4">
+      <c r="CP21" s="3">
         <f t="shared" si="2"/>
         <v>2.0138733497425676E-3</v>
       </c>
-      <c r="CR21" s="3">
+      <c r="CR21" s="21">
         <f t="shared" si="3"/>
         <v>44.689818751398519</v>
       </c>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -6631,20 +6626,20 @@
       <c r="CN22" t="s">
         <v>103</v>
       </c>
-      <c r="CO22" s="4">
+      <c r="CO22" s="3">
         <f t="shared" si="1"/>
         <v>1.7299375300336317E-2</v>
       </c>
-      <c r="CP22" s="4">
+      <c r="CP22" s="3">
         <f t="shared" si="2"/>
         <v>5.8371040723982026E-2</v>
       </c>
-      <c r="CR22" s="3">
+      <c r="CR22" s="21">
         <f t="shared" si="3"/>
         <v>44.049402714932128</v>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -6921,60 +6916,60 @@
       <c r="CN23" t="s">
         <v>97</v>
       </c>
-      <c r="CO23" s="4">
+      <c r="CO23" s="3">
         <f t="shared" si="1"/>
         <v>-2.4900398406391133E-4</v>
       </c>
-      <c r="CP23" s="4">
+      <c r="CP23" s="3">
         <f t="shared" si="2"/>
         <v>5.9405940594059459E-3</v>
       </c>
-      <c r="CR23" s="3">
+      <c r="CR23" s="21">
         <f t="shared" si="3"/>
         <v>40.398574257425736</v>
       </c>
     </row>
-    <row r="24" spans="1:96" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+    <row r="24" spans="1:137" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>15</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>10</v>
       </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
         <v>6</v>
       </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" s="16">
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="15">
         <v>6</v>
       </c>
-      <c r="J24" s="16">
-        <v>0</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" s="16">
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" s="15">
         <v>47.37</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="15" t="s">
         <v>169</v>
       </c>
       <c r="O24">
@@ -6992,16 +6987,16 @@
       <c r="S24">
         <v>4</v>
       </c>
-      <c r="T24" s="16">
-        <v>2</v>
-      </c>
-      <c r="U24" s="16">
+      <c r="T24" s="15">
+        <v>2</v>
+      </c>
+      <c r="U24" s="15">
         <v>15</v>
       </c>
-      <c r="V24" s="16">
-        <v>1</v>
-      </c>
-      <c r="W24" s="16">
+      <c r="V24" s="15">
+        <v>1</v>
+      </c>
+      <c r="W24" s="15">
         <v>4</v>
       </c>
       <c r="X24">
@@ -7019,19 +7014,19 @@
       <c r="AB24">
         <v>46</v>
       </c>
-      <c r="AC24" s="16">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="16">
+      <c r="AC24" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="15">
         <v>4</v>
       </c>
-      <c r="AE24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="16" t="s">
+      <c r="AE24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="15" t="s">
         <v>170</v>
       </c>
       <c r="AH24">
@@ -7049,16 +7044,16 @@
       <c r="AL24">
         <v>66</v>
       </c>
-      <c r="AM24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="16">
+      <c r="AM24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="15">
         <v>0</v>
       </c>
       <c r="AQ24">
@@ -7076,19 +7071,19 @@
       <c r="AU24">
         <v>3</v>
       </c>
-      <c r="AV24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="16">
+      <c r="AV24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="15">
         <v>4</v>
       </c>
-      <c r="AX24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AY24" s="16">
+      <c r="AX24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="15">
         <v>4</v>
       </c>
-      <c r="AZ24" s="16" t="s">
+      <c r="AZ24" s="15" t="s">
         <v>171</v>
       </c>
       <c r="BA24">
@@ -7106,16 +7101,16 @@
       <c r="BE24">
         <v>14</v>
       </c>
-      <c r="BF24" s="16">
-        <v>1</v>
-      </c>
-      <c r="BG24" s="16">
+      <c r="BF24" s="15">
+        <v>1</v>
+      </c>
+      <c r="BG24" s="15">
         <v>3</v>
       </c>
-      <c r="BH24" s="16">
-        <v>0</v>
-      </c>
-      <c r="BI24" s="16">
+      <c r="BH24" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="15">
         <v>0</v>
       </c>
       <c r="BJ24">
@@ -7133,19 +7128,19 @@
       <c r="BN24">
         <v>6</v>
       </c>
-      <c r="BO24" s="16">
-        <v>2</v>
-      </c>
-      <c r="BP24" s="16">
+      <c r="BO24" s="15">
+        <v>2</v>
+      </c>
+      <c r="BP24" s="15">
         <v>9</v>
       </c>
-      <c r="BQ24" s="16">
-        <v>1</v>
-      </c>
-      <c r="BR24" s="16">
+      <c r="BQ24" s="15">
+        <v>1</v>
+      </c>
+      <c r="BR24" s="15">
         <v>9</v>
       </c>
-      <c r="BS24" s="16" t="s">
+      <c r="BS24" s="15" t="s">
         <v>172</v>
       </c>
       <c r="BT24">
@@ -7163,16 +7158,16 @@
       <c r="BX24">
         <v>1</v>
       </c>
-      <c r="BY24" s="16">
-        <v>1</v>
-      </c>
-      <c r="BZ24" s="16">
+      <c r="BY24" s="15">
+        <v>1</v>
+      </c>
+      <c r="BZ24" s="15">
         <v>5</v>
       </c>
-      <c r="CA24" s="16">
-        <v>1</v>
-      </c>
-      <c r="CB24" s="16">
+      <c r="CA24" s="15">
+        <v>1</v>
+      </c>
+      <c r="CB24" s="15">
         <v>1</v>
       </c>
       <c r="CC24">
@@ -7190,41 +7185,83 @@
       <c r="CG24">
         <v>7</v>
       </c>
-      <c r="CH24" s="16">
-        <v>2</v>
-      </c>
-      <c r="CI24" s="16">
+      <c r="CH24" s="15">
+        <v>2</v>
+      </c>
+      <c r="CI24" s="15">
         <v>9</v>
       </c>
-      <c r="CJ24" s="16">
-        <v>1</v>
-      </c>
-      <c r="CK24" s="16">
-        <v>0</v>
-      </c>
-      <c r="CL24" s="16">
+      <c r="CJ24" s="15">
+        <v>1</v>
+      </c>
+      <c r="CK24" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL24" s="15">
         <v>47.81</v>
       </c>
-      <c r="CM24" s="16">
+      <c r="CM24" s="15">
         <v>47.84</v>
       </c>
-      <c r="CN24" s="16" t="s">
+      <c r="CN24" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="CO24" s="17">
+      <c r="CO24" s="16">
         <f t="shared" si="1"/>
         <v>9.2030955866974073E-3</v>
       </c>
-      <c r="CP24" s="17">
+      <c r="CP24" s="16">
         <f t="shared" si="2"/>
         <v>6.270903010033857E-4</v>
       </c>
-      <c r="CR24" s="3">
+      <c r="CQ24" s="20"/>
+      <c r="CR24" s="21">
         <f t="shared" si="3"/>
         <v>47.839981187290974</v>
       </c>
+      <c r="CS24" s="20"/>
+      <c r="CT24" s="20"/>
+      <c r="CU24" s="20"/>
+      <c r="CV24" s="20"/>
+      <c r="CW24" s="20"/>
+      <c r="CX24" s="20"/>
+      <c r="CY24" s="20"/>
+      <c r="CZ24" s="20"/>
+      <c r="DA24" s="20"/>
+      <c r="DB24" s="20"/>
+      <c r="DC24" s="20"/>
+      <c r="DD24" s="20"/>
+      <c r="DE24" s="20"/>
+      <c r="DF24" s="20"/>
+      <c r="DG24" s="20"/>
+      <c r="DH24" s="20"/>
+      <c r="DI24" s="20"/>
+      <c r="DJ24" s="20"/>
+      <c r="DK24" s="20"/>
+      <c r="DL24" s="20"/>
+      <c r="DM24" s="20"/>
+      <c r="DN24" s="20"/>
+      <c r="DO24" s="20"/>
+      <c r="DP24" s="20"/>
+      <c r="DQ24" s="20"/>
+      <c r="DR24" s="20"/>
+      <c r="DS24" s="20"/>
+      <c r="DT24" s="20"/>
+      <c r="DU24" s="20"/>
+      <c r="DV24" s="20"/>
+      <c r="DW24" s="20"/>
+      <c r="DX24" s="20"/>
+      <c r="DY24" s="20"/>
+      <c r="DZ24" s="20"/>
+      <c r="EA24" s="20"/>
+      <c r="EB24" s="20"/>
+      <c r="EC24" s="20"/>
+      <c r="ED24" s="20"/>
+      <c r="EE24" s="20"/>
+      <c r="EF24" s="20"/>
+      <c r="EG24" s="20"/>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>16</v>
       </c>
@@ -7501,20 +7538,20 @@
       <c r="CN25" t="s">
         <v>103</v>
       </c>
-      <c r="CO25" s="4">
+      <c r="CO25" s="3">
         <f t="shared" si="1"/>
         <v>-5.4958780914313721E-3</v>
       </c>
-      <c r="CP25" s="4">
+      <c r="CP25" s="3">
         <f t="shared" si="2"/>
         <v>9.8936433341577645E-3</v>
       </c>
-      <c r="CR25" s="3">
+      <c r="CR25" s="21">
         <f t="shared" si="3"/>
         <v>40.426042542666337</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17</v>
       </c>
@@ -7791,20 +7828,20 @@
       <c r="CN26" t="s">
         <v>103</v>
       </c>
-      <c r="CO26" s="4">
+      <c r="CO26" s="3">
         <f t="shared" si="1"/>
         <v>-8.3547557840617515E-3</v>
       </c>
-      <c r="CP26" s="4">
+      <c r="CP26" s="3">
         <f t="shared" si="2"/>
         <v>5.7507987220447587E-3</v>
       </c>
-      <c r="CR26" s="3">
+      <c r="CR26" s="21">
         <f t="shared" si="3"/>
         <v>46.94844728434505</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
@@ -8081,20 +8118,20 @@
       <c r="CN27" t="s">
         <v>103</v>
       </c>
-      <c r="CO27" s="4">
+      <c r="CO27" s="3">
         <f t="shared" si="1"/>
         <v>2.070869765301464E-3</v>
       </c>
-      <c r="CP27" s="4">
+      <c r="CP27" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CR27" s="3">
+      <c r="CR27" s="21">
         <f t="shared" si="3"/>
         <v>43.46</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
@@ -8371,20 +8408,20 @@
       <c r="CN28" t="s">
         <v>103</v>
       </c>
-      <c r="CO28" s="4">
+      <c r="CO28" s="3">
         <f t="shared" si="1"/>
         <v>-7.5749167591565136E-2</v>
       </c>
-      <c r="CP28" s="4">
+      <c r="CP28" s="3">
         <f t="shared" si="2"/>
         <v>7.23294723294724E-2</v>
       </c>
-      <c r="CR28" s="3">
+      <c r="CR28" s="21">
         <f t="shared" si="3"/>
         <v>38.646754182754187</v>
       </c>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -8661,20 +8698,20 @@
       <c r="CN29" t="s">
         <v>103</v>
       </c>
-      <c r="CO29" s="4">
+      <c r="CO29" s="3">
         <f t="shared" si="1"/>
         <v>-1.775410563692903E-3</v>
       </c>
-      <c r="CP29" s="4">
+      <c r="CP29" s="3">
         <f t="shared" si="2"/>
         <v>1.0322864045684166E-2</v>
       </c>
-      <c r="CR29" s="3">
+      <c r="CR29" s="21">
         <f t="shared" si="3"/>
         <v>45.525148253898529</v>
       </c>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21</v>
       </c>
@@ -8951,20 +8988,20 @@
       <c r="CN30" t="s">
         <v>103</v>
       </c>
-      <c r="CO30" s="4">
+      <c r="CO30" s="3">
         <f t="shared" si="1"/>
         <v>-1.0139764318991329E-2</v>
       </c>
-      <c r="CP30" s="4">
+      <c r="CP30" s="3">
         <f t="shared" si="2"/>
         <v>1.1111111111111072E-2</v>
       </c>
-      <c r="CR30" s="3">
+      <c r="CR30" s="21">
         <f t="shared" si="3"/>
         <v>36.895444444444443</v>
       </c>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>22</v>
       </c>
@@ -9241,20 +9278,20 @@
       <c r="CN31" t="s">
         <v>103</v>
       </c>
-      <c r="CO31" s="4">
+      <c r="CO31" s="3">
         <f t="shared" si="1"/>
         <v>3.4768654720513936E-3</v>
       </c>
-      <c r="CP31" s="4">
+      <c r="CP31" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CR31" s="3">
+      <c r="CR31" s="21">
         <f t="shared" si="3"/>
         <v>37.39</v>
       </c>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>23</v>
       </c>
@@ -9531,15 +9568,15 @@
       <c r="CN32" t="s">
         <v>103</v>
       </c>
-      <c r="CO32" s="4">
+      <c r="CO32" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CP32" s="4">
+      <c r="CP32" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CR32" s="3">
+      <c r="CR32" s="21">
         <f t="shared" si="3"/>
         <v>36.89</v>
       </c>
@@ -9821,15 +9858,15 @@
       <c r="CN33" t="s">
         <v>103</v>
       </c>
-      <c r="CO33" s="4">
+      <c r="CO33" s="3">
         <f t="shared" si="1"/>
         <v>-4.9616599007666906E-3</v>
       </c>
-      <c r="CP33" s="4">
+      <c r="CP33" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CR33" s="3">
+      <c r="CR33" s="21">
         <f t="shared" si="3"/>
         <v>44.34</v>
       </c>
@@ -10111,15 +10148,15 @@
       <c r="CN34" t="s">
         <v>103</v>
       </c>
-      <c r="CO34" s="4">
+      <c r="CO34" s="3">
         <f t="shared" si="1"/>
         <v>6.7479885803269912E-3</v>
       </c>
-      <c r="CP34" s="4">
+      <c r="CP34" s="3">
         <f t="shared" si="2"/>
         <v>3.55444305381728E-2</v>
       </c>
-      <c r="CR34" s="3">
+      <c r="CR34" s="21">
         <f t="shared" si="3"/>
         <v>39.899526908635799</v>
       </c>
@@ -10401,15 +10438,15 @@
       <c r="CN35" t="s">
         <v>103</v>
       </c>
-      <c r="CO35" s="4">
+      <c r="CO35" s="3">
         <f t="shared" si="1"/>
         <v>-5.336179295625243E-4</v>
       </c>
-      <c r="CP35" s="4">
+      <c r="CP35" s="3">
         <f t="shared" si="2"/>
         <v>5.3078556263270738E-3</v>
       </c>
-      <c r="CR35" s="3">
+      <c r="CR35" s="21">
         <f t="shared" si="3"/>
         <v>37.678938428874737</v>
       </c>
@@ -10691,15 +10728,15 @@
       <c r="CN36" t="s">
         <v>103</v>
       </c>
-      <c r="CO36" s="4">
+      <c r="CO36" s="3">
         <f t="shared" si="1"/>
         <v>1.4949494949494935E-2</v>
       </c>
-      <c r="CP36" s="4">
+      <c r="CP36" s="3">
         <f t="shared" si="2"/>
         <v>3.3769275814952149E-2</v>
       </c>
-      <c r="CR36" s="3">
+      <c r="CR36" s="21">
         <f t="shared" si="3"/>
         <v>51.171579152840131</v>
       </c>
@@ -10981,15 +11018,15 @@
       <c r="CN37" t="s">
         <v>103</v>
       </c>
-      <c r="CO37" s="4">
+      <c r="CO37" s="3">
         <f t="shared" si="1"/>
         <v>-6.3168124392616321E-3</v>
       </c>
-      <c r="CP37" s="4">
+      <c r="CP37" s="3">
         <f t="shared" si="2"/>
         <v>1.0101010101010166E-2</v>
       </c>
-      <c r="CR37" s="3">
+      <c r="CR37" s="21">
         <f t="shared" si="3"/>
         <v>41.575757575757578</v>
       </c>
@@ -11271,15 +11308,15 @@
       <c r="CN38" t="s">
         <v>103</v>
       </c>
-      <c r="CO38" s="4">
+      <c r="CO38" s="3">
         <f t="shared" si="1"/>
         <v>-1.14535042268884E-2</v>
       </c>
-      <c r="CP38" s="4">
+      <c r="CP38" s="3">
         <f t="shared" si="2"/>
         <v>8.9189189189188278E-3</v>
       </c>
-      <c r="CR38" s="3">
+      <c r="CR38" s="21">
         <f t="shared" si="3"/>
         <v>36.997056756756756</v>
       </c>
@@ -11561,15 +11598,15 @@
       <c r="CN39" t="s">
         <v>103</v>
       </c>
-      <c r="CO39" s="4">
+      <c r="CO39" s="3">
         <f t="shared" si="1"/>
         <v>1.0073260073260037E-2</v>
       </c>
-      <c r="CP39" s="4">
+      <c r="CP39" s="3">
         <f t="shared" si="2"/>
         <v>4.5578851412945154E-3</v>
       </c>
-      <c r="CR39" s="3">
+      <c r="CR39" s="21">
         <f t="shared" si="3"/>
         <v>43.879088422971741</v>
       </c>
@@ -11851,15 +11888,15 @@
       <c r="CN40" t="s">
         <v>103</v>
       </c>
-      <c r="CO40" s="4">
+      <c r="CO40" s="3">
         <f t="shared" si="1"/>
         <v>6.6533599467732962E-4</v>
       </c>
-      <c r="CP40" s="4">
+      <c r="CP40" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CR40" s="3">
+      <c r="CR40" s="21">
         <f t="shared" si="3"/>
         <v>45.09</v>
       </c>
@@ -12141,15 +12178,15 @@
       <c r="CN41" t="s">
         <v>103</v>
       </c>
-      <c r="CO41" s="4">
+      <c r="CO41" s="3">
         <f t="shared" si="1"/>
         <v>-1.2450199203187351E-2</v>
       </c>
-      <c r="CP41" s="4">
+      <c r="CP41" s="3">
         <f t="shared" si="2"/>
         <v>2.4838549428713996E-3</v>
       </c>
-      <c r="CR41" s="3">
+      <c r="CR41" s="21">
         <f t="shared" si="3"/>
         <v>40.25975161450571</v>
       </c>
@@ -12431,15 +12468,15 @@
       <c r="CN42" t="s">
         <v>97</v>
       </c>
-      <c r="CO42" s="4">
+      <c r="CO42" s="3">
         <f t="shared" si="1"/>
         <v>8.7642418930755639E-4</v>
       </c>
-      <c r="CP42" s="4">
+      <c r="CP42" s="3">
         <f t="shared" si="2"/>
         <v>5.4478099803878521E-3</v>
       </c>
-      <c r="CR42" s="3">
+      <c r="CR42" s="21">
         <f t="shared" si="3"/>
         <v>45.888638047504905</v>
       </c>
@@ -12721,15 +12758,15 @@
       <c r="CN43" t="s">
         <v>103</v>
       </c>
-      <c r="CO43" s="4">
+      <c r="CO43" s="3">
         <f t="shared" si="1"/>
         <v>-4.8735205384078384E-3</v>
       </c>
-      <c r="CP43" s="4">
+      <c r="CP43" s="3">
         <f t="shared" si="2"/>
         <v>5.7683433317951005E-3</v>
       </c>
-      <c r="CR43" s="3">
+      <c r="CR43" s="21">
         <f t="shared" si="3"/>
         <v>43.338557914167055</v>
       </c>
@@ -13011,15 +13048,15 @@
       <c r="CN44" t="s">
         <v>262</v>
       </c>
-      <c r="CO44" s="4">
+      <c r="CO44" s="3">
         <f t="shared" si="1"/>
         <v>2.0719218861633859E-2</v>
       </c>
-      <c r="CP44" s="4">
+      <c r="CP44" s="3">
         <f t="shared" si="2"/>
         <v>2.3809523809514843E-4</v>
       </c>
-      <c r="CR44" s="3">
+      <c r="CR44" s="21">
         <f t="shared" si="3"/>
         <v>41.999997619047619</v>
       </c>
@@ -13301,15 +13338,15 @@
       <c r="CN45" t="s">
         <v>262</v>
       </c>
-      <c r="CO45" s="4">
+      <c r="CO45" s="3">
         <f t="shared" si="1"/>
         <v>1.057718120805351E-3</v>
       </c>
-      <c r="CP45" s="4">
+      <c r="CP45" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CR45" s="3">
+      <c r="CR45" s="21">
         <f t="shared" si="3"/>
         <v>37.25</v>
       </c>
@@ -13591,15 +13628,15 @@
       <c r="CN46" t="s">
         <v>97</v>
       </c>
-      <c r="CO46" s="4">
+      <c r="CO46" s="3">
         <f t="shared" si="1"/>
         <v>-9.1996320147202937E-4</v>
       </c>
-      <c r="CP46" s="4">
+      <c r="CP46" s="3">
         <f t="shared" si="2"/>
         <v>9.7927579139148735E-3</v>
       </c>
-      <c r="CR46" s="3">
+      <c r="CR46" s="21">
         <f t="shared" si="3"/>
         <v>43.905789114097018</v>
       </c>
@@ -13881,15 +13918,15 @@
       <c r="CN47" t="s">
         <v>97</v>
       </c>
-      <c r="CO47" s="4">
+      <c r="CO47" s="3">
         <f t="shared" si="1"/>
         <v>-2.1102611448167163E-3</v>
       </c>
-      <c r="CP47" s="4">
+      <c r="CP47" s="3">
         <f t="shared" si="2"/>
         <v>3.4174553101998795E-3</v>
       </c>
-      <c r="CR47" s="3">
+      <c r="CR47" s="21">
         <f t="shared" si="3"/>
         <v>38.039555730809674</v>
       </c>
@@ -14171,15 +14208,15 @@
       <c r="CN48" t="s">
         <v>97</v>
       </c>
-      <c r="CO48" s="4">
+      <c r="CO48" s="3">
         <f t="shared" si="1"/>
         <v>-1.4634146341463428E-2</v>
       </c>
-      <c r="CP48" s="4">
+      <c r="CP48" s="3">
         <f t="shared" si="2"/>
         <v>8.977900552486151E-3</v>
       </c>
-      <c r="CR48" s="3">
+      <c r="CR48" s="21">
         <f t="shared" si="3"/>
         <v>43.436498618784526</v>
       </c>
@@ -14461,15 +14498,15 @@
       <c r="CN49" t="s">
         <v>97</v>
       </c>
-      <c r="CO49" s="4">
+      <c r="CO49" s="3">
         <f t="shared" si="1"/>
         <v>-1.5104018238814243E-2</v>
       </c>
-      <c r="CP49" s="4">
+      <c r="CP49" s="3">
         <f t="shared" si="2"/>
         <v>1.1386279533162069E-3</v>
       </c>
-      <c r="CR49" s="3">
+      <c r="CR49" s="21">
         <f t="shared" si="3"/>
         <v>35.129954454881869</v>
       </c>
@@ -14751,15 +14788,15 @@
       <c r="CN50" t="s">
         <v>97</v>
       </c>
-      <c r="CO50" s="4">
+      <c r="CO50" s="3">
         <f t="shared" si="1"/>
         <v>7.692307692307776E-3</v>
       </c>
-      <c r="CP50" s="4">
+      <c r="CP50" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CR50" s="3">
+      <c r="CR50" s="21">
         <f t="shared" si="3"/>
         <v>45.5</v>
       </c>
@@ -15041,15 +15078,15 @@
       <c r="CN51" t="s">
         <v>97</v>
       </c>
-      <c r="CO51" s="4">
+      <c r="CO51" s="3">
         <f t="shared" si="1"/>
         <v>-8.8878212827288028E-3</v>
       </c>
-      <c r="CP51" s="4">
+      <c r="CP51" s="3">
         <f t="shared" si="2"/>
         <v>1.2336892052194459E-2</v>
       </c>
-      <c r="CR51" s="3">
+      <c r="CR51" s="21">
         <f t="shared" si="3"/>
         <v>42.143584816132858</v>
       </c>
@@ -15331,15 +15368,15 @@
       <c r="CN52" t="s">
         <v>97</v>
       </c>
-      <c r="CO52" s="4">
+      <c r="CO52" s="3">
         <f t="shared" si="1"/>
         <v>-4.3715846994540897E-4</v>
       </c>
-      <c r="CP52" s="4">
+      <c r="CP52" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CR52" s="3">
+      <c r="CR52" s="21">
         <f t="shared" si="3"/>
         <v>45.75</v>
       </c>
@@ -15621,15 +15658,15 @@
       <c r="CN53" t="s">
         <v>97</v>
       </c>
-      <c r="CO53" s="4">
+      <c r="CO53" s="3">
         <f t="shared" si="1"/>
         <v>-4.4475655430711303E-3</v>
       </c>
-      <c r="CP53" s="4">
+      <c r="CP53" s="3">
         <f t="shared" si="2"/>
         <v>5.8180125669071714E-3</v>
       </c>
-      <c r="CR53" s="3">
+      <c r="CR53" s="21">
         <f t="shared" si="3"/>
         <v>42.968545496858276</v>
       </c>
@@ -15911,15 +15948,15 @@
       <c r="CN54" t="s">
         <v>97</v>
       </c>
-      <c r="CO54" s="4">
+      <c r="CO54" s="3">
         <f t="shared" si="1"/>
         <v>-1.036958255783027E-2</v>
       </c>
-      <c r="CP54" s="4">
+      <c r="CP54" s="3">
         <f t="shared" si="2"/>
         <v>1.0002632271650547E-2</v>
       </c>
-      <c r="CR54" s="3">
+      <c r="CR54" s="21">
         <f t="shared" si="3"/>
         <v>37.986198999736779</v>
       </c>
@@ -16201,15 +16238,15 @@
       <c r="CN55" t="s">
         <v>97</v>
       </c>
-      <c r="CO55" s="4">
+      <c r="CO55" s="3">
         <f t="shared" si="1"/>
         <v>-7.1776467572417513E-3</v>
       </c>
-      <c r="CP55" s="4">
+      <c r="CP55" s="3">
         <f t="shared" si="2"/>
         <v>5.3544110147883961E-3</v>
       </c>
-      <c r="CR55" s="3">
+      <c r="CR55" s="21">
         <f t="shared" si="3"/>
         <v>39.218875573686894</v>
       </c>
@@ -16491,15 +16528,15 @@
       <c r="CN56" t="s">
         <v>97</v>
       </c>
-      <c r="CO56" s="4">
+      <c r="CO56" s="3">
         <f t="shared" si="1"/>
         <v>-9.9455363485674297E-3</v>
       </c>
-      <c r="CP56" s="4">
+      <c r="CP56" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CR56" s="3">
+      <c r="CR56" s="21">
         <f t="shared" si="3"/>
         <v>42.23</v>
       </c>
@@ -16781,15 +16818,15 @@
       <c r="CN57" t="s">
         <v>97</v>
       </c>
-      <c r="CO57" s="4">
+      <c r="CO57" s="3">
         <f t="shared" si="1"/>
         <v>-2.044989775051187E-3</v>
       </c>
-      <c r="CP57" s="4">
+      <c r="CP57" s="3">
         <f t="shared" si="2"/>
         <v>4.5423574835345981E-4</v>
       </c>
-      <c r="CR57" s="3">
+      <c r="CR57" s="21">
         <f t="shared" si="3"/>
         <v>44.029990915285033</v>
       </c>
@@ -16798,7 +16835,7 @@
       <c r="A58">
         <v>49</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>314</v>
       </c>
       <c r="C58">
@@ -17071,15 +17108,15 @@
       <c r="CN58" t="s">
         <v>97</v>
       </c>
-      <c r="CO58" s="4">
+      <c r="CO58" s="3">
         <f t="shared" si="1"/>
         <v>1.6007317630917228E-3</v>
       </c>
-      <c r="CP58" s="4">
+      <c r="CP58" s="3">
         <f t="shared" si="2"/>
         <v>4.4153005464480977E-2</v>
       </c>
-      <c r="CR58" s="3">
+      <c r="CR58" s="21">
         <f t="shared" si="3"/>
         <v>45.660810928961752</v>
       </c>
@@ -17361,15 +17398,15 @@
       <c r="CN59" t="s">
         <v>97</v>
       </c>
-      <c r="CO59" s="4">
+      <c r="CO59" s="3">
         <f t="shared" si="1"/>
         <v>-5.0237231370360291E-3</v>
       </c>
-      <c r="CP59" s="4">
+      <c r="CP59" s="3">
         <f t="shared" si="2"/>
         <v>3.5012119579854728E-2</v>
       </c>
-      <c r="CR59" s="3">
+      <c r="CR59" s="21">
         <f t="shared" si="3"/>
         <v>37.084484244546196</v>
       </c>
@@ -17651,15 +17688,15 @@
       <c r="CN60" t="s">
         <v>97</v>
       </c>
-      <c r="CO60" s="4">
+      <c r="CO60" s="3">
         <f t="shared" si="1"/>
         <v>-4.1723110268220065E-2</v>
       </c>
-      <c r="CP60" s="4">
+      <c r="CP60" s="3">
         <f t="shared" si="2"/>
         <v>2.8428533824690794E-2</v>
       </c>
-      <c r="CR60" s="3">
+      <c r="CR60" s="21">
         <f t="shared" si="3"/>
         <v>37.959297183469332</v>
       </c>
@@ -17941,15 +17978,15 @@
       <c r="CN61" t="s">
         <v>97</v>
       </c>
-      <c r="CO61" s="4">
+      <c r="CO61" s="3">
         <f t="shared" si="1"/>
         <v>-6.8720904455774612E-3</v>
       </c>
-      <c r="CP61" s="4">
+      <c r="CP61" s="3">
         <f t="shared" si="2"/>
         <v>8.8593576965667609E-4</v>
       </c>
-      <c r="CR61" s="3">
+      <c r="CR61" s="21">
         <f t="shared" si="3"/>
         <v>45.14996456256921</v>
       </c>
@@ -18231,15 +18268,15 @@
       <c r="CN62" t="s">
         <v>97</v>
       </c>
-      <c r="CO62" s="4">
+      <c r="CO62" s="3">
         <f t="shared" si="1"/>
         <v>2.3089355806982237E-4</v>
       </c>
-      <c r="CP62" s="4">
+      <c r="CP62" s="3">
         <f t="shared" si="2"/>
         <v>2.9926335174953467E-3</v>
       </c>
-      <c r="CR62" s="3">
+      <c r="CR62" s="21">
         <f t="shared" si="3"/>
         <v>43.439610957642728</v>
       </c>
@@ -18521,15 +18558,15 @@
       <c r="CN63" t="s">
         <v>97</v>
       </c>
-      <c r="CO63" s="4">
+      <c r="CO63" s="3">
         <f t="shared" si="1"/>
         <v>-7.5433744028141625E-4</v>
       </c>
-      <c r="CP63" s="4">
+      <c r="CP63" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CR63" s="3">
+      <c r="CR63" s="21">
         <f t="shared" si="3"/>
         <v>39.770000000000003</v>
       </c>
@@ -18811,15 +18848,15 @@
       <c r="CN64" t="s">
         <v>97</v>
       </c>
-      <c r="CO64" s="4">
+      <c r="CO64" s="3">
         <f t="shared" si="1"/>
         <v>4.024571065452176E-3</v>
       </c>
-      <c r="CP64" s="4">
+      <c r="CP64" s="3">
         <f t="shared" si="2"/>
         <v>1.6458333333333353E-2</v>
       </c>
-      <c r="CR64" s="3">
+      <c r="CR64" s="21">
         <f t="shared" si="3"/>
         <v>47.986997916666667</v>
       </c>
@@ -19101,15 +19138,15 @@
       <c r="CN65" t="s">
         <v>97</v>
       </c>
-      <c r="CO65" s="4">
+      <c r="CO65" s="3">
         <f t="shared" si="1"/>
         <v>2.5893319523561109E-3</v>
       </c>
-      <c r="CP65" s="4">
+      <c r="CP65" s="3">
         <f t="shared" si="2"/>
         <v>1.5511892450880138E-3</v>
       </c>
-      <c r="CR65" s="3">
+      <c r="CR65" s="21">
         <f t="shared" si="3"/>
         <v>38.679906928645295</v>
       </c>
@@ -19391,15 +19428,15 @@
       <c r="CN66" t="s">
         <v>103</v>
       </c>
-      <c r="CO66" s="4">
+      <c r="CO66" s="3">
         <f t="shared" si="1"/>
         <v>-6.514657980456251E-3</v>
       </c>
-      <c r="CP66" s="4">
+      <c r="CP66" s="3">
         <f t="shared" si="2"/>
         <v>6.4724919093852584E-3</v>
       </c>
-      <c r="CR66" s="3">
+      <c r="CR66" s="21">
         <f t="shared" si="3"/>
         <v>40.168317152103562</v>
       </c>
@@ -19681,15 +19718,15 @@
       <c r="CN67" t="s">
         <v>97</v>
       </c>
-      <c r="CO67" s="4">
+      <c r="CO67" s="3">
         <f t="shared" si="1"/>
         <v>-1.4385039558858725E-2</v>
       </c>
-      <c r="CP67" s="4">
+      <c r="CP67" s="3">
         <f t="shared" si="2"/>
         <v>8.0856123662306212E-3</v>
       </c>
-      <c r="CR67" s="3">
+      <c r="CR67" s="21">
         <f t="shared" si="3"/>
         <v>42.047250891795478</v>
       </c>
@@ -19971,15 +20008,15 @@
       <c r="CN68" t="s">
         <v>97</v>
       </c>
-      <c r="CO68" s="4">
+      <c r="CO68" s="3">
         <f t="shared" si="1"/>
         <v>-2.9585798816569309E-3</v>
       </c>
-      <c r="CP68" s="4">
+      <c r="CP68" s="3">
         <f t="shared" si="2"/>
         <v>2.2706630336057909E-3</v>
       </c>
-      <c r="CR68" s="3">
+      <c r="CR68" s="21">
         <f t="shared" si="3"/>
         <v>44.039772933696639</v>
       </c>
@@ -20261,15 +20298,15 @@
       <c r="CN69" t="s">
         <v>103</v>
       </c>
-      <c r="CO69" s="4">
+      <c r="CO69" s="3">
         <f t="shared" si="1"/>
         <v>-7.9386080973804507E-3</v>
       </c>
-      <c r="CP69" s="4">
+      <c r="CP69" s="3">
         <f t="shared" si="2"/>
         <v>3.4282700421941481E-3</v>
       </c>
-      <c r="CR69" s="3">
+      <c r="CR69" s="21">
         <f t="shared" si="3"/>
         <v>37.919554324894513</v>
       </c>
@@ -20551,15 +20588,15 @@
       <c r="CN70" t="s">
         <v>97</v>
       </c>
-      <c r="CO70" s="4">
+      <c r="CO70" s="3">
         <f t="shared" si="1"/>
         <v>7.6662908680947828E-3</v>
       </c>
-      <c r="CP70" s="4">
+      <c r="CP70" s="3">
         <f t="shared" si="2"/>
         <v>4.507550146494177E-4</v>
       </c>
-      <c r="CR70" s="3">
+      <c r="CR70" s="21">
         <f t="shared" si="3"/>
         <v>44.369990984899701</v>
       </c>
@@ -20841,15 +20878,15 @@
       <c r="CN71" t="s">
         <v>103</v>
       </c>
-      <c r="CO71" s="4">
+      <c r="CO71" s="3">
         <f t="shared" si="1"/>
         <v>2.2291573785104823E-4</v>
       </c>
-      <c r="CP71" s="4">
+      <c r="CP71" s="3">
         <f t="shared" si="2"/>
         <v>7.741650077416562E-3</v>
       </c>
-      <c r="CR71" s="3">
+      <c r="CR71" s="21">
         <f t="shared" si="3"/>
         <v>45.207290422472909</v>
       </c>
@@ -21131,15 +21168,15 @@
       <c r="CN72" t="s">
         <v>97</v>
       </c>
-      <c r="CO72" s="4">
+      <c r="CO72" s="3">
         <f t="shared" si="1"/>
         <v>2.1445421402543907E-4</v>
       </c>
-      <c r="CP72" s="4">
+      <c r="CP72" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CR72" s="3">
+      <c r="CR72" s="21">
         <f t="shared" si="3"/>
         <v>46.63</v>
       </c>
@@ -21421,15 +21458,15 @@
       <c r="CN73" t="s">
         <v>97</v>
       </c>
-      <c r="CO73" s="4">
+      <c r="CO73" s="3">
         <f t="shared" si="1"/>
         <v>-7.7425598838616327E-3</v>
       </c>
-      <c r="CP73" s="4">
+      <c r="CP73" s="3">
         <f t="shared" si="2"/>
         <v>9.5854301461777425E-3</v>
       </c>
-      <c r="CR73" s="3">
+      <c r="CR73" s="21">
         <f t="shared" si="3"/>
         <v>41.726165827941522</v>
       </c>
@@ -21711,15 +21748,15 @@
       <c r="CN74" t="s">
         <v>103</v>
       </c>
-      <c r="CO74" s="4">
+      <c r="CO74" s="3">
         <f t="shared" ref="CO74:CO117" si="4">100%-(M74/CL74)</f>
         <v>-3.2603841000446554E-2</v>
       </c>
-      <c r="CP74" s="4">
+      <c r="CP74" s="3">
         <f t="shared" ref="CP74:CP117" si="5">100%-(CL74/CM74)</f>
         <v>2.926512031216133E-2</v>
       </c>
-      <c r="CR74" s="3">
+      <c r="CR74" s="21">
         <f t="shared" ref="CR74:CR137" si="6">CL74*CP74+CL74</f>
         <v>46.090492087578582</v>
       </c>
@@ -22001,15 +22038,15 @@
       <c r="CN75" t="s">
         <v>103</v>
       </c>
-      <c r="CO75" s="4">
+      <c r="CO75" s="3">
         <f t="shared" si="4"/>
         <v>-1.0060362173038184E-2</v>
       </c>
-      <c r="CP75" s="4">
+      <c r="CP75" s="3">
         <f t="shared" si="5"/>
         <v>1.0398230088495719E-2</v>
       </c>
-      <c r="CR75" s="3">
+      <c r="CR75" s="21">
         <f t="shared" si="6"/>
         <v>45.19511283185841</v>
       </c>
@@ -22291,15 +22328,15 @@
       <c r="CN76" t="s">
         <v>103</v>
       </c>
-      <c r="CO76" s="4">
+      <c r="CO76" s="3">
         <f t="shared" si="4"/>
         <v>-1.7489955093358489E-2</v>
       </c>
-      <c r="CP76" s="4">
+      <c r="CP76" s="3">
         <f t="shared" si="5"/>
         <v>1.6046511627906934E-2</v>
       </c>
-      <c r="CR76" s="3">
+      <c r="CR76" s="21">
         <f t="shared" si="6"/>
         <v>42.988927906976741</v>
       </c>
@@ -22581,15 +22618,15 @@
       <c r="CN77" t="s">
         <v>103</v>
       </c>
-      <c r="CO77" s="4">
+      <c r="CO77" s="3">
         <f t="shared" si="4"/>
         <v>-1.3835511145272816E-2</v>
       </c>
-      <c r="CP77" s="4">
+      <c r="CP77" s="3">
         <f t="shared" si="5"/>
         <v>1.4642766978035793E-2</v>
       </c>
-      <c r="CR77" s="3">
+      <c r="CR77" s="21">
         <f t="shared" si="6"/>
         <v>39.601507195152735</v>
       </c>
@@ -22871,15 +22908,15 @@
       <c r="CN78" t="s">
         <v>103</v>
       </c>
-      <c r="CO78" s="4">
+      <c r="CO78" s="3">
         <f t="shared" si="4"/>
         <v>-5.0390526581001183E-4</v>
       </c>
-      <c r="CP78" s="4">
+      <c r="CP78" s="3">
         <f t="shared" si="5"/>
         <v>6.7567567567567988E-3</v>
       </c>
-      <c r="CR78" s="3">
+      <c r="CR78" s="21">
         <f t="shared" si="6"/>
         <v>39.958175675675676</v>
       </c>
@@ -23161,15 +23198,15 @@
       <c r="CN79" t="s">
         <v>103</v>
       </c>
-      <c r="CO79" s="4">
+      <c r="CO79" s="3">
         <f t="shared" si="4"/>
         <v>-7.012271475081322E-3</v>
       </c>
-      <c r="CP79" s="4">
+      <c r="CP79" s="3">
         <f t="shared" si="5"/>
         <v>1.999500124968745E-3</v>
       </c>
-      <c r="CR79" s="3">
+      <c r="CR79" s="21">
         <f t="shared" si="6"/>
         <v>40.009840039990003</v>
       </c>
@@ -23451,15 +23488,15 @@
       <c r="CN80" t="s">
         <v>103</v>
       </c>
-      <c r="CO80" s="4">
+      <c r="CO80" s="3">
         <f t="shared" si="4"/>
         <v>-1.2475191380776796E-2</v>
       </c>
-      <c r="CP80" s="4">
+      <c r="CP80" s="3">
         <f t="shared" si="5"/>
         <v>6.4788732394365223E-3</v>
       </c>
-      <c r="CR80" s="3">
+      <c r="CR80" s="21">
         <f t="shared" si="6"/>
         <v>35.498509859154929</v>
       </c>
@@ -23741,15 +23778,15 @@
       <c r="CN81" t="s">
         <v>103</v>
       </c>
-      <c r="CO81" s="4">
+      <c r="CO81" s="3">
         <f t="shared" si="4"/>
         <v>-1.9819367787255349E-2</v>
       </c>
-      <c r="CP81" s="4">
+      <c r="CP81" s="3">
         <f t="shared" si="5"/>
         <v>4.6411483253588459E-2</v>
       </c>
-      <c r="CR81" s="3">
+      <c r="CR81" s="21">
         <f t="shared" si="6"/>
         <v>41.709961722488032</v>
       </c>
@@ -24031,15 +24068,15 @@
       <c r="CN82" t="s">
         <v>103</v>
       </c>
-      <c r="CO82" s="4">
+      <c r="CO82" s="3">
         <f t="shared" si="4"/>
         <v>6.9044879171462625E-3</v>
       </c>
-      <c r="CP82" s="4">
+      <c r="CP82" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR82" s="3">
+      <c r="CR82" s="21">
         <f t="shared" si="6"/>
         <v>43.45</v>
       </c>
@@ -24321,15 +24358,15 @@
       <c r="CN83" t="s">
         <v>103</v>
       </c>
-      <c r="CO83" s="4">
+      <c r="CO83" s="3">
         <f t="shared" si="4"/>
         <v>-6.6937604590007194E-3</v>
       </c>
-      <c r="CP83" s="4">
+      <c r="CP83" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR83" s="3">
+      <c r="CR83" s="21">
         <f t="shared" si="6"/>
         <v>41.83</v>
       </c>
@@ -24611,15 +24648,15 @@
       <c r="CN84" t="s">
         <v>103</v>
       </c>
-      <c r="CO84" s="4">
+      <c r="CO84" s="3">
         <f t="shared" si="4"/>
         <v>-8.5428362216255493E-3</v>
       </c>
-      <c r="CP84" s="4">
+      <c r="CP84" s="3">
         <f t="shared" si="5"/>
         <v>1.1103065411537605E-2</v>
       </c>
-      <c r="CR84" s="3">
+      <c r="CR84" s="21">
         <f t="shared" si="6"/>
         <v>41.424892589910698</v>
       </c>
@@ -24901,15 +24938,15 @@
       <c r="CN85" t="s">
         <v>103</v>
       </c>
-      <c r="CO85" s="4">
+      <c r="CO85" s="3">
         <f t="shared" si="4"/>
         <v>-2.1201413427561766E-2</v>
       </c>
-      <c r="CP85" s="4">
+      <c r="CP85" s="3">
         <f t="shared" si="5"/>
         <v>1.0755579456843245E-2</v>
       </c>
-      <c r="CR85" s="3">
+      <c r="CR85" s="21">
         <f t="shared" si="6"/>
         <v>37.18569776821726</v>
       </c>
@@ -25191,15 +25228,15 @@
       <c r="CN86" t="s">
         <v>103</v>
       </c>
-      <c r="CO86" s="4">
+      <c r="CO86" s="3">
         <f t="shared" si="4"/>
         <v>-6.4287297716691949E-3</v>
       </c>
-      <c r="CP86" s="4">
+      <c r="CP86" s="3">
         <f t="shared" si="5"/>
         <v>3.9743872819606452E-3</v>
       </c>
-      <c r="CR86" s="3">
+      <c r="CR86" s="21">
         <f t="shared" si="6"/>
         <v>45.289284610289243</v>
       </c>
@@ -25481,15 +25518,15 @@
       <c r="CN87" t="s">
         <v>103</v>
       </c>
-      <c r="CO87" s="4">
+      <c r="CO87" s="3">
         <f t="shared" si="4"/>
         <v>8.2087981477584337E-3</v>
       </c>
-      <c r="CP87" s="4">
+      <c r="CP87" s="3">
         <f t="shared" si="5"/>
         <v>5.6030200675541431E-2</v>
       </c>
-      <c r="CR87" s="3">
+      <c r="CR87" s="21">
         <f t="shared" si="6"/>
         <v>50.171994834094974</v>
       </c>
@@ -25771,15 +25808,15 @@
       <c r="CN88" t="s">
         <v>103</v>
       </c>
-      <c r="CO88" s="4">
+      <c r="CO88" s="3">
         <f t="shared" si="4"/>
         <v>-4.5589919816724001E-2</v>
       </c>
-      <c r="CP88" s="4">
+      <c r="CP88" s="3">
         <f t="shared" si="5"/>
         <v>4.9433797909407717E-2</v>
       </c>
-      <c r="CR88" s="3">
+      <c r="CR88" s="21">
         <f t="shared" si="6"/>
         <v>45.807785278745648</v>
       </c>
@@ -26061,15 +26098,15 @@
       <c r="CN89" t="s">
         <v>103</v>
       </c>
-      <c r="CO89" s="4">
+      <c r="CO89" s="3">
         <f t="shared" si="4"/>
         <v>-2.4740227610098309E-4</v>
       </c>
-      <c r="CP89" s="4">
+      <c r="CP89" s="3">
         <f t="shared" si="5"/>
         <v>1.9753086419752597E-3</v>
       </c>
-      <c r="CR89" s="3">
+      <c r="CR89" s="21">
         <f t="shared" si="6"/>
         <v>40.499841975308641</v>
       </c>
@@ -26351,15 +26388,15 @@
       <c r="CN90" t="s">
         <v>103</v>
       </c>
-      <c r="CO90" s="4">
+      <c r="CO90" s="3">
         <f t="shared" si="4"/>
         <v>5.0639016156257544E-3</v>
       </c>
-      <c r="CP90" s="4">
+      <c r="CP90" s="3">
         <f t="shared" si="5"/>
         <v>6.7065868263472828E-3</v>
       </c>
-      <c r="CR90" s="3">
+      <c r="CR90" s="21">
         <f t="shared" si="6"/>
         <v>41.74812215568862</v>
       </c>
@@ -26641,15 +26678,15 @@
       <c r="CN91" t="s">
         <v>103</v>
       </c>
-      <c r="CO91" s="4">
+      <c r="CO91" s="3">
         <f t="shared" si="4"/>
         <v>-1.042374801722179E-2</v>
       </c>
-      <c r="CP91" s="4">
+      <c r="CP91" s="3">
         <f t="shared" si="5"/>
         <v>8.3146067415730274E-3</v>
       </c>
-      <c r="CR91" s="3">
+      <c r="CR91" s="21">
         <f t="shared" si="6"/>
         <v>44.496923595505621</v>
       </c>
@@ -26931,15 +26968,15 @@
       <c r="CN92" t="s">
         <v>103</v>
       </c>
-      <c r="CO92" s="4">
+      <c r="CO92" s="3">
         <f t="shared" si="4"/>
         <v>5.2742616033762957E-4</v>
       </c>
-      <c r="CP92" s="4">
+      <c r="CP92" s="3">
         <f t="shared" si="5"/>
         <v>1.1985409067222563E-2</v>
       </c>
-      <c r="CR92" s="3">
+      <c r="CR92" s="21">
         <f t="shared" si="6"/>
         <v>38.374486711829078</v>
       </c>
@@ -27221,15 +27258,15 @@
       <c r="CN93" t="s">
         <v>103</v>
       </c>
-      <c r="CO93" s="4">
+      <c r="CO93" s="3">
         <f t="shared" si="4"/>
         <v>-8.2391713747647088E-3</v>
       </c>
-      <c r="CP93" s="4">
+      <c r="CP93" s="3">
         <f t="shared" si="5"/>
         <v>1.4156416802042382E-2</v>
       </c>
-      <c r="CR93" s="3">
+      <c r="CR93" s="21">
         <f t="shared" si="6"/>
         <v>43.081364585750755</v>
       </c>
@@ -27511,15 +27548,15 @@
       <c r="CN94" t="s">
         <v>103</v>
       </c>
-      <c r="CO94" s="4">
+      <c r="CO94" s="3">
         <f t="shared" si="4"/>
         <v>1.5147689977279555E-3</v>
       </c>
-      <c r="CP94" s="4">
+      <c r="CP94" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR94" s="3">
+      <c r="CR94" s="21">
         <f t="shared" si="6"/>
         <v>39.61</v>
       </c>
@@ -27801,15 +27838,15 @@
       <c r="CN95" t="s">
         <v>103</v>
       </c>
-      <c r="CO95" s="4">
+      <c r="CO95" s="3">
         <f t="shared" si="4"/>
         <v>-4.2887776983560055E-3</v>
       </c>
-      <c r="CP95" s="4">
+      <c r="CP95" s="3">
         <f t="shared" si="5"/>
         <v>1.0141509433962304E-2</v>
       </c>
-      <c r="CR95" s="3">
+      <c r="CR95" s="21">
         <f t="shared" si="6"/>
         <v>42.395639150943396</v>
       </c>
@@ -28091,20 +28128,20 @@
       <c r="CN96" t="s">
         <v>103</v>
       </c>
-      <c r="CO96" s="4">
+      <c r="CO96" s="3">
         <f t="shared" si="4"/>
         <v>-2.3243933588761312E-2</v>
       </c>
-      <c r="CP96" s="4">
+      <c r="CP96" s="3">
         <f t="shared" si="5"/>
         <v>6.0929169840061581E-3</v>
       </c>
-      <c r="CR96" s="3">
+      <c r="CR96" s="21">
         <f t="shared" si="6"/>
         <v>39.388537699923837</v>
       </c>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>88</v>
       </c>
@@ -28381,20 +28418,20 @@
       <c r="CN97" t="s">
         <v>103</v>
       </c>
-      <c r="CO97" s="4">
+      <c r="CO97" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="CP97" s="4">
+      <c r="CP97" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR97" s="3">
+      <c r="CR97" s="21">
         <f t="shared" si="6"/>
         <v>44.33</v>
       </c>
     </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>89</v>
       </c>
@@ -28671,20 +28708,20 @@
       <c r="CN98" t="s">
         <v>103</v>
       </c>
-      <c r="CO98" s="4">
+      <c r="CO98" s="3">
         <f t="shared" si="4"/>
         <v>-1.730005672149737E-2</v>
       </c>
-      <c r="CP98" s="4">
+      <c r="CP98" s="3">
         <f t="shared" si="5"/>
         <v>1.1217049915872135E-2</v>
       </c>
-      <c r="CR98" s="3">
+      <c r="CR98" s="21">
         <f t="shared" si="6"/>
         <v>35.655513180033651</v>
       </c>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>90</v>
       </c>
@@ -28961,20 +28998,20 @@
       <c r="CN99" t="s">
         <v>103</v>
       </c>
-      <c r="CO99" s="4">
+      <c r="CO99" s="3">
         <f t="shared" si="4"/>
         <v>-3.7803997110522625E-2</v>
       </c>
-      <c r="CP99" s="4">
+      <c r="CP99" s="3">
         <f t="shared" si="5"/>
         <v>1.5410146989094375E-2</v>
       </c>
-      <c r="CR99" s="3">
+      <c r="CR99" s="21">
         <f t="shared" si="6"/>
         <v>42.169983404457092</v>
       </c>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>91</v>
       </c>
@@ -29251,20 +29288,20 @@
       <c r="CN100" t="s">
         <v>103</v>
       </c>
-      <c r="CO100" s="4">
+      <c r="CO100" s="3">
         <f t="shared" si="4"/>
         <v>2.1593608291958777E-4</v>
       </c>
-      <c r="CP100" s="4">
+      <c r="CP100" s="3">
         <f t="shared" si="5"/>
         <v>8.9878022683499426E-3</v>
       </c>
-      <c r="CR100" s="3">
+      <c r="CR100" s="21">
         <f t="shared" si="6"/>
         <v>46.726225123047286</v>
       </c>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>92</v>
       </c>
@@ -29541,20 +29578,20 @@
       <c r="CN101" t="s">
         <v>103</v>
       </c>
-      <c r="CO101" s="4">
+      <c r="CO101" s="3">
         <f t="shared" si="4"/>
         <v>-8.7393489185050299E-4</v>
       </c>
-      <c r="CP101" s="4">
+      <c r="CP101" s="3">
         <f t="shared" si="5"/>
         <v>2.9474130619168704E-2</v>
       </c>
-      <c r="CR101" s="3">
+      <c r="CR101" s="21">
         <f t="shared" si="6"/>
         <v>47.119030958439353</v>
       </c>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>93</v>
       </c>
@@ -29831,60 +29868,60 @@
       <c r="CN102" t="s">
         <v>103</v>
       </c>
-      <c r="CO102" s="4">
+      <c r="CO102" s="3">
         <f t="shared" si="4"/>
         <v>7.7812361049354184E-3</v>
       </c>
-      <c r="CP102" s="4">
+      <c r="CP102" s="3">
         <f t="shared" si="5"/>
         <v>8.1587651598677979E-3</v>
       </c>
-      <c r="CR102" s="3">
+      <c r="CR102" s="21">
         <f t="shared" si="6"/>
         <v>45.346981256890849</v>
       </c>
     </row>
-    <row r="103" spans="1:96" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="16">
+    <row r="103" spans="1:137" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15">
         <v>94</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="C103" s="16">
+      <c r="C103" s="15">
         <v>9</v>
       </c>
-      <c r="D103" s="16">
-        <v>0</v>
-      </c>
-      <c r="E103" s="16">
+      <c r="D103" s="15">
+        <v>0</v>
+      </c>
+      <c r="E103" s="15">
         <v>6</v>
       </c>
-      <c r="F103" s="16">
-        <v>0</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H103" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I103" s="16">
+      <c r="F103" s="15">
+        <v>0</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I103" s="15">
         <v>6</v>
       </c>
-      <c r="J103" s="16">
-        <v>0</v>
-      </c>
-      <c r="K103" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L103" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M103" s="16">
+      <c r="J103" s="15">
+        <v>0</v>
+      </c>
+      <c r="K103" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L103" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M103" s="15">
         <v>42.7</v>
       </c>
-      <c r="N103" s="16" t="s">
+      <c r="N103" s="15" t="s">
         <v>225</v>
       </c>
       <c r="O103">
@@ -29902,16 +29939,16 @@
       <c r="S103">
         <v>92</v>
       </c>
-      <c r="T103" s="16">
-        <v>0</v>
-      </c>
-      <c r="U103" s="16">
-        <v>0</v>
-      </c>
-      <c r="V103" s="16">
-        <v>0</v>
-      </c>
-      <c r="W103" s="16">
+      <c r="T103" s="15">
+        <v>0</v>
+      </c>
+      <c r="U103" s="15">
+        <v>0</v>
+      </c>
+      <c r="V103" s="15">
+        <v>0</v>
+      </c>
+      <c r="W103" s="15">
         <v>0</v>
       </c>
       <c r="X103">
@@ -29929,19 +29966,19 @@
       <c r="AB103">
         <v>17</v>
       </c>
-      <c r="AC103" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD103" s="16">
+      <c r="AC103" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD103" s="15">
         <v>17</v>
       </c>
-      <c r="AE103" s="16">
-        <v>1</v>
-      </c>
-      <c r="AF103" s="16">
+      <c r="AE103" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF103" s="15">
         <v>17</v>
       </c>
-      <c r="AG103" s="16" t="s">
+      <c r="AG103" s="15" t="s">
         <v>476</v>
       </c>
       <c r="AH103">
@@ -29959,16 +29996,16 @@
       <c r="AL103">
         <v>21</v>
       </c>
-      <c r="AM103" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN103" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO103" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP103" s="16">
+      <c r="AM103" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN103" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO103" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP103" s="15">
         <v>0</v>
       </c>
       <c r="AQ103">
@@ -29986,19 +30023,19 @@
       <c r="AU103">
         <v>10</v>
       </c>
-      <c r="AV103" s="16">
-        <v>1</v>
-      </c>
-      <c r="AW103" s="16">
+      <c r="AV103" s="15">
+        <v>1</v>
+      </c>
+      <c r="AW103" s="15">
         <v>12</v>
       </c>
-      <c r="AX103" s="16">
-        <v>1</v>
-      </c>
-      <c r="AY103" s="16">
+      <c r="AX103" s="15">
+        <v>1</v>
+      </c>
+      <c r="AY103" s="15">
         <v>12</v>
       </c>
-      <c r="AZ103" s="16" t="s">
+      <c r="AZ103" s="15" t="s">
         <v>477</v>
       </c>
       <c r="BA103">
@@ -30016,16 +30053,16 @@
       <c r="BE103">
         <v>84</v>
       </c>
-      <c r="BF103" s="16">
-        <v>1</v>
-      </c>
-      <c r="BG103" s="16">
+      <c r="BF103" s="15">
+        <v>1</v>
+      </c>
+      <c r="BG103" s="15">
         <v>17</v>
       </c>
-      <c r="BH103" s="16">
-        <v>1</v>
-      </c>
-      <c r="BI103" s="16">
+      <c r="BH103" s="15">
+        <v>1</v>
+      </c>
+      <c r="BI103" s="15">
         <v>9</v>
       </c>
       <c r="BJ103">
@@ -30043,19 +30080,19 @@
       <c r="BN103">
         <v>1</v>
       </c>
-      <c r="BO103" s="16">
-        <v>1</v>
-      </c>
-      <c r="BP103" s="16">
-        <v>1</v>
-      </c>
-      <c r="BQ103" s="16">
-        <v>1</v>
-      </c>
-      <c r="BR103" s="16">
-        <v>1</v>
-      </c>
-      <c r="BS103" s="16" t="s">
+      <c r="BO103" s="15">
+        <v>1</v>
+      </c>
+      <c r="BP103" s="15">
+        <v>1</v>
+      </c>
+      <c r="BQ103" s="15">
+        <v>1</v>
+      </c>
+      <c r="BR103" s="15">
+        <v>1</v>
+      </c>
+      <c r="BS103" s="15" t="s">
         <v>229</v>
       </c>
       <c r="BT103">
@@ -30073,16 +30110,16 @@
       <c r="BX103">
         <v>31</v>
       </c>
-      <c r="BY103" s="16">
-        <v>0</v>
-      </c>
-      <c r="BZ103" s="16">
-        <v>0</v>
-      </c>
-      <c r="CA103" s="16">
-        <v>0</v>
-      </c>
-      <c r="CB103" s="16">
+      <c r="BY103" s="15">
+        <v>0</v>
+      </c>
+      <c r="BZ103" s="15">
+        <v>0</v>
+      </c>
+      <c r="CA103" s="15">
+        <v>0</v>
+      </c>
+      <c r="CB103" s="15">
         <v>0</v>
       </c>
       <c r="CC103">
@@ -30100,41 +30137,83 @@
       <c r="CG103">
         <v>12</v>
       </c>
-      <c r="CH103" s="16">
-        <v>1</v>
-      </c>
-      <c r="CI103" s="16">
+      <c r="CH103" s="15">
+        <v>1</v>
+      </c>
+      <c r="CI103" s="15">
         <v>14</v>
       </c>
-      <c r="CJ103" s="16">
-        <v>1</v>
-      </c>
-      <c r="CK103" s="16">
+      <c r="CJ103" s="15">
+        <v>1</v>
+      </c>
+      <c r="CK103" s="15">
         <v>14</v>
       </c>
-      <c r="CL103" s="16">
+      <c r="CL103" s="15">
         <v>43.29</v>
       </c>
-      <c r="CM103" s="16">
+      <c r="CM103" s="15">
         <v>43.58</v>
       </c>
-      <c r="CN103" s="16" t="s">
+      <c r="CN103" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="CO103" s="17">
+      <c r="CO103" s="16">
         <f t="shared" si="4"/>
         <v>1.3629013629013587E-2</v>
       </c>
-      <c r="CP103" s="17">
+      <c r="CP103" s="16">
         <f t="shared" si="5"/>
         <v>6.6544286369893957E-3</v>
       </c>
-      <c r="CR103" s="3">
+      <c r="CQ103" s="20"/>
+      <c r="CR103" s="21">
         <f t="shared" si="6"/>
         <v>43.57807021569527</v>
       </c>
+      <c r="CS103" s="20"/>
+      <c r="CT103" s="20"/>
+      <c r="CU103" s="20"/>
+      <c r="CV103" s="20"/>
+      <c r="CW103" s="20"/>
+      <c r="CX103" s="20"/>
+      <c r="CY103" s="20"/>
+      <c r="CZ103" s="20"/>
+      <c r="DA103" s="20"/>
+      <c r="DB103" s="20"/>
+      <c r="DC103" s="20"/>
+      <c r="DD103" s="20"/>
+      <c r="DE103" s="20"/>
+      <c r="DF103" s="20"/>
+      <c r="DG103" s="20"/>
+      <c r="DH103" s="20"/>
+      <c r="DI103" s="20"/>
+      <c r="DJ103" s="20"/>
+      <c r="DK103" s="20"/>
+      <c r="DL103" s="20"/>
+      <c r="DM103" s="20"/>
+      <c r="DN103" s="20"/>
+      <c r="DO103" s="20"/>
+      <c r="DP103" s="20"/>
+      <c r="DQ103" s="20"/>
+      <c r="DR103" s="20"/>
+      <c r="DS103" s="20"/>
+      <c r="DT103" s="20"/>
+      <c r="DU103" s="20"/>
+      <c r="DV103" s="20"/>
+      <c r="DW103" s="20"/>
+      <c r="DX103" s="20"/>
+      <c r="DY103" s="20"/>
+      <c r="DZ103" s="20"/>
+      <c r="EA103" s="20"/>
+      <c r="EB103" s="20"/>
+      <c r="EC103" s="20"/>
+      <c r="ED103" s="20"/>
+      <c r="EE103" s="20"/>
+      <c r="EF103" s="20"/>
+      <c r="EG103" s="20"/>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>95</v>
       </c>
@@ -30411,20 +30490,20 @@
       <c r="CN104" t="s">
         <v>103</v>
       </c>
-      <c r="CO104" s="4">
+      <c r="CO104" s="3">
         <f t="shared" si="4"/>
         <v>3.4685165421557418E-3</v>
       </c>
-      <c r="CP104" s="4">
+      <c r="CP104" s="3">
         <f t="shared" si="5"/>
         <v>7.4152542372881713E-3</v>
       </c>
-      <c r="CR104" s="3">
+      <c r="CR104" s="21">
         <f t="shared" si="6"/>
         <v>37.757923728813559</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>96</v>
       </c>
@@ -30701,20 +30780,20 @@
       <c r="CN105" t="s">
         <v>103</v>
       </c>
-      <c r="CO105" s="4">
+      <c r="CO105" s="3">
         <f t="shared" si="4"/>
         <v>3.7267080745341241E-3</v>
       </c>
-      <c r="CP105" s="4">
+      <c r="CP105" s="3">
         <f t="shared" si="5"/>
         <v>1.1299435028248594E-2</v>
       </c>
-      <c r="CR105" s="3">
+      <c r="CR105" s="21">
         <f t="shared" si="6"/>
         <v>40.704802259887003</v>
       </c>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>97</v>
       </c>
@@ -30991,24 +31070,24 @@
       <c r="CN106" t="s">
         <v>103</v>
       </c>
-      <c r="CO106" s="4">
+      <c r="CO106" s="3">
         <f t="shared" si="4"/>
         <v>-7.1258907363420665E-3</v>
       </c>
-      <c r="CP106" s="4">
+      <c r="CP106" s="3">
         <f t="shared" si="5"/>
         <v>5.0440844781628025E-2</v>
       </c>
-      <c r="CR106" s="3">
+      <c r="CR106" s="21">
         <f t="shared" si="6"/>
         <v>48.645915521837196</v>
       </c>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>98</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>489</v>
       </c>
       <c r="C107">
@@ -31281,20 +31360,20 @@
       <c r="CN107" t="s">
         <v>103</v>
       </c>
-      <c r="CO107" s="4">
+      <c r="CO107" s="3">
         <f t="shared" si="4"/>
         <v>8.0382775119617333E-3</v>
       </c>
-      <c r="CP107" s="4">
+      <c r="CP107" s="3">
         <f t="shared" si="5"/>
         <v>2.6276556093924652E-2</v>
       </c>
-      <c r="CR107" s="3">
+      <c r="CR107" s="21">
         <f t="shared" si="6"/>
         <v>53.622950055907566</v>
       </c>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>99</v>
       </c>
@@ -31571,20 +31650,20 @@
       <c r="CN108" t="s">
         <v>97</v>
       </c>
-      <c r="CO108" s="4">
+      <c r="CO108" s="3">
         <f t="shared" si="4"/>
         <v>-9.9413713994391806E-3</v>
       </c>
-      <c r="CP108" s="4">
+      <c r="CP108" s="3">
         <f t="shared" si="5"/>
         <v>3.0495552731893971E-3</v>
       </c>
-      <c r="CR108" s="3">
+      <c r="CR108" s="21">
         <f t="shared" si="6"/>
         <v>39.349634053367218</v>
       </c>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>100</v>
       </c>
@@ -31861,20 +31940,20 @@
       <c r="CN109" t="s">
         <v>97</v>
       </c>
-      <c r="CO109" s="4">
+      <c r="CO109" s="3">
         <f t="shared" si="4"/>
         <v>1.0621348911311612E-3</v>
       </c>
-      <c r="CP109" s="4">
+      <c r="CP109" s="3">
         <f t="shared" si="5"/>
         <v>7.1183759557079673E-3</v>
       </c>
-      <c r="CR109" s="3">
+      <c r="CR109" s="21">
         <f t="shared" si="6"/>
         <v>37.928078038491961</v>
       </c>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>101</v>
       </c>
@@ -32151,20 +32230,20 @@
       <c r="CN110" t="s">
         <v>97</v>
       </c>
-      <c r="CO110" s="4">
+      <c r="CO110" s="3">
         <f t="shared" si="4"/>
         <v>-1.0509107893507785E-2</v>
       </c>
-      <c r="CP110" s="4">
+      <c r="CP110" s="3">
         <f t="shared" si="5"/>
         <v>4.8803160585637606E-3</v>
       </c>
-      <c r="CR110" s="3">
+      <c r="CR110" s="21">
         <f t="shared" si="6"/>
         <v>43.028975133627704</v>
       </c>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>102</v>
       </c>
@@ -32441,20 +32520,20 @@
       <c r="CN111" t="s">
         <v>97</v>
       </c>
-      <c r="CO111" s="4">
+      <c r="CO111" s="3">
         <f t="shared" si="4"/>
         <v>4.5766590389015871E-3</v>
       </c>
-      <c r="CP111" s="4">
+      <c r="CP111" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR111" s="3">
+      <c r="CR111" s="21">
         <f t="shared" si="6"/>
         <v>39.33</v>
       </c>
     </row>
-    <row r="112" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>103</v>
       </c>
@@ -32731,15 +32810,15 @@
       <c r="CN112" t="s">
         <v>97</v>
       </c>
-      <c r="CO112" s="4">
+      <c r="CO112" s="3">
         <f t="shared" si="4"/>
         <v>-4.4001852709587563E-3</v>
       </c>
-      <c r="CP112" s="4">
+      <c r="CP112" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR112" s="3">
+      <c r="CR112" s="21">
         <f t="shared" si="6"/>
         <v>43.18</v>
       </c>
@@ -33021,15 +33100,15 @@
       <c r="CN113" t="s">
         <v>97</v>
       </c>
-      <c r="CO113" s="4">
+      <c r="CO113" s="3">
         <f t="shared" si="4"/>
         <v>2.0399836801321403E-4</v>
       </c>
-      <c r="CP113" s="4">
+      <c r="CP113" s="3">
         <f t="shared" si="5"/>
         <v>4.467912266450047E-3</v>
       </c>
-      <c r="CR113" s="3">
+      <c r="CR113" s="21">
         <f t="shared" si="6"/>
         <v>49.239017059301382</v>
       </c>
@@ -33311,15 +33390,15 @@
       <c r="CN114" t="s">
         <v>97</v>
       </c>
-      <c r="CO114" s="4">
+      <c r="CO114" s="3">
         <f t="shared" si="4"/>
         <v>-1.7551655187735937E-2</v>
       </c>
-      <c r="CP114" s="4">
+      <c r="CP114" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR114" s="3">
+      <c r="CR114" s="21">
         <f t="shared" si="6"/>
         <v>45.01</v>
       </c>
@@ -33601,15 +33680,15 @@
       <c r="CN115" t="s">
         <v>97</v>
       </c>
-      <c r="CO115" s="4">
+      <c r="CO115" s="3">
         <f t="shared" si="4"/>
         <v>-9.1491308325708509E-3</v>
       </c>
-      <c r="CP115" s="4">
+      <c r="CP115" s="3">
         <f t="shared" si="5"/>
         <v>5.9117780809457843E-3</v>
       </c>
-      <c r="CR115" s="3">
+      <c r="CR115" s="21">
         <f t="shared" si="6"/>
         <v>43.97846293769895</v>
       </c>
@@ -33891,15 +33970,15 @@
       <c r="CN116" t="s">
         <v>97</v>
       </c>
-      <c r="CO116" s="4">
+      <c r="CO116" s="3">
         <f t="shared" si="4"/>
         <v>-3.5460992907803135E-3</v>
       </c>
-      <c r="CP116" s="4">
+      <c r="CP116" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR116" s="3">
+      <c r="CR116" s="21">
         <f t="shared" si="6"/>
         <v>42.3</v>
       </c>
@@ -34181,825 +34260,825 @@
       <c r="CN117" t="s">
         <v>97</v>
       </c>
-      <c r="CO117" s="4">
+      <c r="CO117" s="3">
         <f t="shared" si="4"/>
         <v>-4.6206225680935908E-3</v>
       </c>
-      <c r="CP117" s="4">
+      <c r="CP117" s="3">
         <f t="shared" si="5"/>
         <v>9.633911368015502E-3</v>
       </c>
-      <c r="CR117" s="3">
+      <c r="CR117" s="21">
         <f t="shared" si="6"/>
         <v>41.516146435452796</v>
       </c>
     </row>
     <row r="118" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR118" s="3">
+      <c r="CR118" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR119" s="3">
+      <c r="CR119" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR120" s="3">
+      <c r="CR120" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR121" s="3">
+      <c r="CR121" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR122" s="3">
+      <c r="CR122" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR123" s="3">
+      <c r="CR123" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR124" s="3">
+      <c r="CR124" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR125" s="3">
+      <c r="CR125" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR126" s="3">
+      <c r="CR126" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR127" s="3">
+      <c r="CR127" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR128" s="3">
+      <c r="CR128" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR129" s="3">
+      <c r="CR129" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR130" s="3">
+      <c r="CR130" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR131" s="3">
+      <c r="CR131" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR132" s="3">
+      <c r="CR132" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR133" s="3">
+      <c r="CR133" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR134" s="3">
+      <c r="CR134" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR135" s="3">
+      <c r="CR135" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR136" s="3">
+      <c r="CR136" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR137" s="3">
+      <c r="CR137" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR138" s="3">
+      <c r="CR138" s="21">
         <f t="shared" ref="CR138:CR201" si="7">CL138*CP138+CL138</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR139" s="3">
+      <c r="CR139" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR140" s="3">
+      <c r="CR140" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR141" s="3">
+      <c r="CR141" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR142" s="3">
+      <c r="CR142" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR143" s="3">
+      <c r="CR143" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR144" s="3">
+      <c r="CR144" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR145" s="3">
+      <c r="CR145" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR146" s="3">
+      <c r="CR146" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR147" s="3">
+      <c r="CR147" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR148" s="3">
+      <c r="CR148" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR149" s="3">
+      <c r="CR149" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR150" s="3">
+      <c r="CR150" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR151" s="3">
+      <c r="CR151" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR152" s="3">
+      <c r="CR152" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR153" s="3">
+      <c r="CR153" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR154" s="3">
+      <c r="CR154" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR155" s="3">
+      <c r="CR155" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR156" s="3">
+      <c r="CR156" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR157" s="3">
+      <c r="CR157" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR158" s="3">
+      <c r="CR158" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR159" s="3">
+      <c r="CR159" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR160" s="3">
+      <c r="CR160" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR161" s="3">
+      <c r="CR161" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR162" s="3">
+      <c r="CR162" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR163" s="3">
+      <c r="CR163" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR164" s="3">
+      <c r="CR164" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR165" s="3">
+      <c r="CR165" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR166" s="3">
+      <c r="CR166" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR167" s="3">
+      <c r="CR167" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR168" s="3">
+      <c r="CR168" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR169" s="3">
+      <c r="CR169" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR170" s="3">
+      <c r="CR170" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR171" s="3">
+      <c r="CR171" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR172" s="3">
+      <c r="CR172" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR173" s="3">
+      <c r="CR173" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR174" s="3">
+      <c r="CR174" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR175" s="3">
+      <c r="CR175" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR176" s="3">
+      <c r="CR176" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR177" s="3">
+      <c r="CR177" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR178" s="3">
+      <c r="CR178" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR179" s="3">
+      <c r="CR179" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR180" s="3">
+      <c r="CR180" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR181" s="3">
+      <c r="CR181" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR182" s="3">
+      <c r="CR182" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR183" s="3">
+      <c r="CR183" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR184" s="3">
+      <c r="CR184" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR185" s="3">
+      <c r="CR185" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR186" s="3">
+      <c r="CR186" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR187" s="3">
+      <c r="CR187" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR188" s="3">
+      <c r="CR188" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR189" s="3">
+      <c r="CR189" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR190" s="3">
+      <c r="CR190" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR191" s="3">
+      <c r="CR191" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR192" s="3">
+      <c r="CR192" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR193" s="3">
+      <c r="CR193" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR194" s="3">
+      <c r="CR194" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR195" s="3">
+      <c r="CR195" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR196" s="3">
+      <c r="CR196" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR197" s="3">
+      <c r="CR197" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR198" s="3">
+      <c r="CR198" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR199" s="3">
+      <c r="CR199" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR200" s="3">
+      <c r="CR200" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR201" s="3">
+      <c r="CR201" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR202" s="3">
+      <c r="CR202" s="21">
         <f t="shared" ref="CR202:CR252" si="8">CL202*CP202+CL202</f>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR203" s="3">
+      <c r="CR203" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR204" s="3">
+      <c r="CR204" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR205" s="3">
+      <c r="CR205" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR206" s="3">
+      <c r="CR206" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR207" s="3">
+      <c r="CR207" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR208" s="3">
+      <c r="CR208" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR209" s="3">
+      <c r="CR209" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR210" s="3">
+      <c r="CR210" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR211" s="3">
+      <c r="CR211" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR212" s="3">
+      <c r="CR212" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR213" s="3">
+      <c r="CR213" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR214" s="3">
+      <c r="CR214" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR215" s="3">
+      <c r="CR215" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR216" s="3">
+      <c r="CR216" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR217" s="3">
+      <c r="CR217" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR218" s="3">
+      <c r="CR218" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR219" s="3">
+      <c r="CR219" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR220" s="3">
+      <c r="CR220" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR221" s="3">
+      <c r="CR221" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR222" s="3">
+      <c r="CR222" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR223" s="3">
+      <c r="CR223" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR224" s="3">
+      <c r="CR224" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR225" s="3">
+      <c r="CR225" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR226" s="3">
+      <c r="CR226" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR227" s="3">
+      <c r="CR227" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR228" s="3">
+      <c r="CR228" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR229" s="3">
+      <c r="CR229" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR230" s="3">
+      <c r="CR230" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR231" s="3">
+      <c r="CR231" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR232" s="3">
+      <c r="CR232" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR233" s="3">
+      <c r="CR233" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR234" s="3">
+      <c r="CR234" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR235" s="3">
+      <c r="CR235" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR236" s="3">
+      <c r="CR236" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR237" s="3">
+      <c r="CR237" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR238" s="3">
+      <c r="CR238" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR239" s="3">
+      <c r="CR239" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR240" s="3">
+      <c r="CR240" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR241" s="3">
+      <c r="CR241" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR242" s="3">
+      <c r="CR242" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR243" s="3">
+      <c r="CR243" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR244" s="3">
+      <c r="CR244" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR245" s="3">
+      <c r="CR245" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR246" s="3">
+      <c r="CR246" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR247" s="3">
+      <c r="CR247" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR248" s="3">
+      <c r="CR248" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR249" s="3">
+      <c r="CR249" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR250" s="3">
+      <c r="CR250" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR251" s="3">
+      <c r="CR251" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR252" s="3">
+      <c r="CR252" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -35010,33 +35089,33 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="CP9:CP117">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>1%</formula>
       <formula>1.5%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP117">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>0.015</formula>
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP117">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP117">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0.005</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>0.005</formula>
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP117">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
